--- a/API-Menu-Structure.xlsx
+++ b/API-Menu-Structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burim\source\repos\HPH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\HPH\slate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56170AC4-A27A-4AF5-B4E5-21513F04DC14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AA9FB4-AB7D-4DAB-AE81-E1730D0DC501}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68031EA4-D900-42E5-8B79-CA4AA05BCBC9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="218">
   <si>
     <t>Background</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>Get Vendor List</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1078,14 +1081,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0603F66C-89E1-466E-94DE-BAAE6E162C7B}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:D36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1099,7 @@
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -1109,8 +1112,11 @@
       <c r="D1" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1127,11 @@
         <v>205</v>
       </c>
       <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1135,8 +1144,11 @@
       <c r="D3" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1149,8 +1161,11 @@
       <c r="D4" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1163,8 +1178,11 @@
       <c r="D5" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1177,8 +1195,11 @@
       <c r="D6" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1191,8 +1212,11 @@
       <c r="D7" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1205,8 +1229,11 @@
       <c r="D8" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1219,8 +1246,11 @@
       <c r="D9" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
@@ -1233,8 +1263,11 @@
       <c r="D10" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
@@ -1245,8 +1278,11 @@
         <v>116</v>
       </c>
       <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
@@ -1259,8 +1295,11 @@
       <c r="D12" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>96</v>
       </c>
@@ -1273,8 +1312,11 @@
       <c r="D13" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -1287,8 +1329,11 @@
       <c r="D14" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>98</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="D15" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
@@ -1315,8 +1363,11 @@
       <c r="D16" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>100</v>
       </c>
@@ -1329,8 +1380,11 @@
       <c r="D17" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1343,8 +1397,11 @@
       <c r="D18" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -1357,8 +1414,11 @@
       <c r="D19" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1432,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1446,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1474,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1488,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1502,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1516,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1530,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1484,7 +1544,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1498,7 +1558,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1526,7 +1586,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -1540,7 +1600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1614,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1628,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1654,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1668,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1682,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1636,7 +1696,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1710,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1664,7 +1724,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1738,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1692,7 +1752,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1766,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +1780,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1808,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1822,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>71</v>
       </c>
@@ -1776,7 +1836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -1790,7 +1850,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>73</v>
       </c>
@@ -1804,7 +1864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>74</v>
       </c>
@@ -1818,7 +1878,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>75</v>
       </c>
@@ -1832,7 +1892,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -1846,7 +1906,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>77</v>
       </c>
@@ -1860,7 +1920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>78</v>
       </c>
@@ -1874,7 +1934,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
@@ -1888,7 +1948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>80</v>
       </c>
@@ -1902,7 +1962,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>81</v>
       </c>
@@ -1916,7 +1976,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>82</v>
       </c>
@@ -1930,7 +1990,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>83</v>
       </c>
@@ -1944,7 +2004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>84</v>
       </c>
@@ -1958,7 +2018,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>85</v>
       </c>
@@ -1972,7 +2032,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>86</v>
       </c>
@@ -1986,7 +2046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>87</v>
       </c>
@@ -2012,7 +2072,7 @@
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>36</v>
       </c>
@@ -2026,7 +2086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +2100,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>38</v>
       </c>
@@ -2054,7 +2114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>39</v>
       </c>
@@ -2080,7 +2140,7 @@
       </c>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -2094,7 +2154,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -2108,7 +2168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -2122,7 +2182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2136,7 +2196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -2162,7 +2222,7 @@
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -2174,7 +2234,7 @@
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -2188,7 +2248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -2202,7 +2262,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -2216,7 +2276,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -2230,7 +2290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -2244,7 +2304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -2258,7 +2318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -2272,7 +2332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -2286,7 +2346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -2300,7 +2360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>56</v>
       </c>
@@ -2314,7 +2374,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -2328,7 +2388,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -2342,7 +2402,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -2356,7 +2416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -2394,7 +2454,7 @@
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>64</v>
       </c>
@@ -2408,7 +2468,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>65</v>
       </c>
@@ -2422,7 +2482,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>66</v>
       </c>
@@ -2436,7 +2496,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>67</v>
       </c>
@@ -2450,7 +2510,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -2462,7 +2522,7 @@
       </c>
       <c r="D99" s="8"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>69</v>
       </c>
@@ -2476,7 +2536,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>89</v>
       </c>
@@ -2488,7 +2548,7 @@
       </c>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>90</v>
       </c>
@@ -2502,7 +2562,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>91</v>
       </c>
@@ -2516,7 +2576,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>92</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="D104" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2544,7 +2607,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2559,19 +2622,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D106" xr:uid="{1DFA4A78-DD3A-4535-822E-F7D89F542ED7}"/>
+  <autoFilter ref="A1:E106" xr:uid="{92D89740-B4DC-4151-98DA-34A9AF3CCA34}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Get Catalog Items"/>
+        <filter val="To be removed when new Put Template is implemented"/>
+        <filter val="To be updated with new content"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C101:D101"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="1.43" right="0.2" top="0.45" bottom="0.31" header="0.3" footer="0.2"/>

--- a/API-Menu-Structure.xlsx
+++ b/API-Menu-Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\HPH\slate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AA9FB4-AB7D-4DAB-AE81-E1730D0DC501}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF228D8A-06D7-496A-BB1C-CBFFBC9ECBC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68031EA4-D900-42E5-8B79-CA4AA05BCBC9}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,13 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1081,14 +1074,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0603F66C-89E1-466E-94DE-BAAE6E162C7B}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,22 +1109,22 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="6"/>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
@@ -1267,22 +1260,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="5">
         <v>139</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="6"/>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
@@ -1299,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>96</v>
       </c>
@@ -1316,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -1333,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>98</v>
       </c>
@@ -1350,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
@@ -1367,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>100</v>
       </c>
@@ -1384,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1401,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -1431,6 +1424,9 @@
       <c r="D20" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1445,6 +1441,9 @@
       <c r="D21" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1459,6 +1458,9 @@
       <c r="D22" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1473,6 +1475,9 @@
       <c r="D23" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1487,6 +1492,9 @@
       <c r="D24" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1501,19 +1509,25 @@
       <c r="D25" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>182</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,6 +1543,9 @@
       <c r="D27" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1543,19 +1560,25 @@
       <c r="D28" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>188</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,6 +1594,9 @@
       <c r="D30" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1585,6 +1611,9 @@
       <c r="D31" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1599,174 +1628,213 @@
       <c r="D32" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="5">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="5">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="5">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="5">
         <v>37</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <v>39</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="5">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="5">
         <v>42</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="5">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5">
         <v>47</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="5">
         <v>48</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5">
         <v>49</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -1779,8 +1847,11 @@
       <c r="D45" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -1793,8 +1864,11 @@
       <c r="D46" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
@@ -1807,8 +1881,11 @@
       <c r="D47" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -1821,8 +1898,11 @@
       <c r="D48" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>71</v>
       </c>
@@ -1835,8 +1915,11 @@
       <c r="D49" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -1849,8 +1932,11 @@
       <c r="D50" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>73</v>
       </c>
@@ -1863,8 +1949,11 @@
       <c r="D51" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>74</v>
       </c>
@@ -1877,8 +1966,11 @@
       <c r="D52" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>75</v>
       </c>
@@ -1891,8 +1983,11 @@
       <c r="D53" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -1905,8 +2000,11 @@
       <c r="D54" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>77</v>
       </c>
@@ -1919,8 +2017,11 @@
       <c r="D55" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>78</v>
       </c>
@@ -1933,8 +2034,11 @@
       <c r="D56" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
@@ -1947,8 +2051,11 @@
       <c r="D57" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>80</v>
       </c>
@@ -1961,8 +2068,11 @@
       <c r="D58" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>81</v>
       </c>
@@ -1975,8 +2085,11 @@
       <c r="D59" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>82</v>
       </c>
@@ -1989,8 +2102,11 @@
       <c r="D60" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>83</v>
       </c>
@@ -2003,8 +2119,11 @@
       <c r="D61" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>84</v>
       </c>
@@ -2017,8 +2136,11 @@
       <c r="D62" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>85</v>
       </c>
@@ -2031,8 +2153,11 @@
       <c r="D63" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>86</v>
       </c>
@@ -2045,8 +2170,11 @@
       <c r="D64" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>87</v>
       </c>
@@ -2059,20 +2187,26 @@
       <c r="D65" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B66" s="5">
         <v>132</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="6"/>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>36</v>
       </c>
@@ -2085,8 +2219,11 @@
       <c r="D67" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>37</v>
       </c>
@@ -2099,8 +2236,11 @@
       <c r="D68" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>38</v>
       </c>
@@ -2113,8 +2253,11 @@
       <c r="D69" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>39</v>
       </c>
@@ -2127,428 +2270,524 @@
       <c r="D70" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="5">
         <v>59</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="5">
         <v>61</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="5">
         <v>62</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="5">
         <v>64</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="5">
         <v>65</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="5">
         <v>67</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="5">
         <v>68</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D77" s="6"/>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="5">
         <v>70</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="5">
         <v>71</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="5">
         <v>72</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="5">
         <v>77</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="5">
         <v>79</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="5">
         <v>73</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="5">
         <v>81</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="5">
         <v>83</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="5">
         <v>87</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="5">
         <v>89</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="5">
         <v>85</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="5">
         <v>75</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="5">
         <v>91</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="5">
         <v>92</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="5">
         <v>94</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="5">
         <v>95</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="D93" s="6"/>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="5">
         <v>96</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D94" s="6"/>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="5">
         <v>98</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="5">
         <v>99</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="5">
         <v>100</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="5">
         <v>101</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="5">
         <v>102</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="D99" s="6"/>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="5">
         <v>105</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B101" s="5">
         <v>133</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="9"/>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="6"/>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>90</v>
       </c>
@@ -2561,8 +2800,11 @@
       <c r="D102" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>91</v>
       </c>
@@ -2575,8 +2817,11 @@
       <c r="D103" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>92</v>
       </c>
@@ -2593,59 +2838,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="5">
         <v>149</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="5">
         <v>151</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E106" xr:uid="{92D89740-B4DC-4151-98DA-34A9AF3CCA34}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Get Catalog Items"/>
-        <filter val="To be removed when new Put Template is implemented"/>
-        <filter val="To be updated with new content"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E106" xr:uid="{92D89740-B4DC-4151-98DA-34A9AF3CCA34}"/>
   <mergeCells count="11">
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C101:D101"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="1.43" right="0.2" top="0.45" bottom="0.31" header="0.3" footer="0.2"/>
